--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2084542.307189634</v>
+        <v>2080237.184192564</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>152.0747039460365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>96.86671316392817</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>21.77839090781085</v>
+        <v>67.14237095910568</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.21594625443468</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>173.7599375602583</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760054</v>
+        <v>92.8578877276005</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425924</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>3.066203634128424</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,13 +983,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074806</v>
+        <v>44.33060630074803</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>141.1842762096742</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>155.8144848974951</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>19.86486348319844</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.22759959115429</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>158.2658702222558</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>52.87016524603457</v>
       </c>
       <c r="I8" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>165.9131519509328</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2994675790488</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721423</v>
+        <v>20.27697994470972</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923916</v>
+        <v>9.085774025514283</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>167.7615818425261</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>173.9610973318183</v>
       </c>
       <c r="V13" t="n">
-        <v>206.7582264966179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>40.53421095546921</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,13 +1903,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701366</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>62.14989839348819</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>180.8909947756162</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>185.4555778410726</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>244.8868067888989</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>178.2798710842933</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>80.33989744909005</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>53.76947475493767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>5.421623586791523</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>121.2172995552592</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>62.14989839348819</v>
+        <v>135.3286065175535</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>21.63824106824953</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>185.4048731212365</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703239</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>72.26558381699921</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.6519665656067</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="C2" t="n">
-        <v>217.6519665656067</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="D2" t="n">
-        <v>217.6519665656067</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656067</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
         <v>15.0020469733056</v>
@@ -4330,52 +4330,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487952</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="U2" t="n">
-        <v>407.0717515820916</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="V2" t="n">
-        <v>407.0717515820916</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="W2" t="n">
-        <v>217.6519665656067</v>
+        <v>224.5974673148101</v>
       </c>
       <c r="X2" t="n">
-        <v>217.6519665656067</v>
+        <v>224.5974673148101</v>
       </c>
       <c r="Y2" t="n">
-        <v>217.6519665656067</v>
+        <v>224.5974673148101</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298.0982375934586</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="C3" t="n">
-        <v>276.0998629391042</v>
+        <v>682.2817719389104</v>
       </c>
       <c r="D3" t="n">
-        <v>276.0998629391042</v>
+        <v>533.3473622776592</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>374.1099072722037</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>227.5753492990887</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>90.0361681215378</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>90.0361681215378</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
         <v>15.0020469733056</v>
@@ -4424,37 +4424,37 @@
         <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264284</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264284</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264284</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099435</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099435</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W3" t="n">
-        <v>298.0982375934586</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X3" t="n">
-        <v>298.0982375934586</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.0982375934586</v>
+        <v>750.1023486652798</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750.10234866528</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>750.10234866528</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>750.10234866528</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>750.10234866528</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>750.10234866528</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>697.3589686102955</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>697.3589686102955</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>697.3589686102955</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>697.3589686102955</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>697.3589686102955</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>709.3965921992917</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>725.3468614886972</v>
+        <v>42.98993985170722</v>
       </c>
       <c r="N4" t="n">
-        <v>748.7753949309534</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>750.10234866528</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.10234866528</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>750.10234866528</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>750.10234866528</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>750.10234866528</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>750.10234866528</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>750.10234866528</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>750.10234866528</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>750.10234866528</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.10234866528</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1396.839928494309</v>
+        <v>1314.02155108852</v>
       </c>
       <c r="C5" t="n">
-        <v>1396.839928494309</v>
+        <v>1314.02155108852</v>
       </c>
       <c r="D5" t="n">
-        <v>1038.574229887559</v>
+        <v>955.7558524817691</v>
       </c>
       <c r="E5" t="n">
-        <v>863.0591414428535</v>
+        <v>955.7558524817691</v>
       </c>
       <c r="F5" t="n">
-        <v>856.11364069365</v>
+        <v>544.7699476921616</v>
       </c>
       <c r="G5" t="n">
-        <v>439.6975955077416</v>
+        <v>128.3539025062531</v>
       </c>
       <c r="H5" t="n">
         <v>128.3539025062531</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="J5" t="n">
-        <v>111.670553901721</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746965</v>
+        <v>277.9807166746973</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030744</v>
+        <v>521.2049416030759</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709158</v>
+        <v>823.508193570917</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582749</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079236</v>
+        <v>1416.413635079238</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332754</v>
+        <v>1621.822248332756</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.90281583788</v>
+        <v>1727.902815837881</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.90281583788</v>
+        <v>1703.71856654065</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.90281583788</v>
+        <v>1703.71856654065</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.90281583788</v>
+        <v>1700.621391152641</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.90281583788</v>
+        <v>1700.621391152641</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.839928494309</v>
+        <v>1700.621391152641</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.839928494309</v>
+        <v>1700.621391152641</v>
       </c>
       <c r="X5" t="n">
-        <v>1396.839928494309</v>
+        <v>1700.621391152641</v>
       </c>
       <c r="Y5" t="n">
-        <v>1396.839928494309</v>
+        <v>1700.621391152641</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>504.480053232251</v>
+        <v>800.7994951237466</v>
       </c>
       <c r="C6" t="n">
-        <v>330.0270239511239</v>
+        <v>626.3464658426196</v>
       </c>
       <c r="D6" t="n">
-        <v>181.0926142898726</v>
+        <v>477.4120561813683</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898726</v>
+        <v>318.1746011759128</v>
       </c>
       <c r="F6" t="n">
-        <v>34.5580563167576</v>
+        <v>171.6400432027978</v>
       </c>
       <c r="G6" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="H6" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="J6" t="n">
-        <v>61.6678846478751</v>
+        <v>61.66788464787518</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806059</v>
+        <v>186.157723980606</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189971</v>
+        <v>399.8722171189974</v>
       </c>
       <c r="M6" t="n">
-        <v>668.623818522349</v>
+        <v>668.6238185223493</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352464</v>
+        <v>958.8971200352469</v>
       </c>
       <c r="O6" t="n">
         <v>1202.220686228317</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639506</v>
+        <v>1378.176233639507</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906547</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703771</v>
+        <v>1401.100270703772</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699366</v>
+        <v>1401.100270703772</v>
       </c>
       <c r="T6" t="n">
-        <v>1115.698998689594</v>
+        <v>1401.100270703772</v>
       </c>
       <c r="U6" t="n">
-        <v>1115.698998689594</v>
+        <v>1401.100270703772</v>
       </c>
       <c r="V6" t="n">
-        <v>880.5468904578518</v>
+        <v>1165.948162472029</v>
       </c>
       <c r="W6" t="n">
-        <v>880.5468904578518</v>
+        <v>1008.559793888701</v>
       </c>
       <c r="X6" t="n">
-        <v>672.6953902523189</v>
+        <v>1008.559793888701</v>
       </c>
       <c r="Y6" t="n">
-        <v>672.6953902523189</v>
+        <v>800.7994951237466</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.4073328270576</v>
+        <v>349.7535309159022</v>
       </c>
       <c r="C7" t="n">
-        <v>182.4711498991507</v>
+        <v>349.7535309159022</v>
       </c>
       <c r="D7" t="n">
-        <v>182.4711498991507</v>
+        <v>349.7535309159022</v>
       </c>
       <c r="E7" t="n">
-        <v>34.5580563167576</v>
+        <v>349.7535309159022</v>
       </c>
       <c r="F7" t="n">
-        <v>34.5580563167576</v>
+        <v>202.8635834179918</v>
       </c>
       <c r="G7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="H7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="I7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="J7" t="n">
-        <v>34.5580563167576</v>
+        <v>34.55805631675763</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574668</v>
+        <v>64.24066662574674</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584111</v>
+        <v>132.1299861584112</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347966</v>
+        <v>206.9680378347967</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195359</v>
+        <v>287.884133819536</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934707</v>
+        <v>342.310156193471</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857993</v>
+        <v>349.7535309159022</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857993</v>
+        <v>349.7535309159022</v>
       </c>
       <c r="S7" t="n">
-        <v>351.4073328270576</v>
+        <v>349.7535309159022</v>
       </c>
       <c r="T7" t="n">
-        <v>351.4073328270576</v>
+        <v>349.7535309159022</v>
       </c>
       <c r="U7" t="n">
-        <v>351.4073328270576</v>
+        <v>349.7535309159022</v>
       </c>
       <c r="V7" t="n">
-        <v>351.4073328270576</v>
+        <v>349.7535309159022</v>
       </c>
       <c r="W7" t="n">
-        <v>351.4073328270576</v>
+        <v>349.7535309159022</v>
       </c>
       <c r="X7" t="n">
-        <v>351.4073328270576</v>
+        <v>349.7535309159022</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.4073328270576</v>
+        <v>349.7535309159022</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1056.483593774102</v>
+        <v>888.7124668435279</v>
       </c>
       <c r="C8" t="n">
-        <v>1056.483593774102</v>
+        <v>519.7499499031162</v>
       </c>
       <c r="D8" t="n">
-        <v>698.2178951673513</v>
+        <v>519.7499499031162</v>
       </c>
       <c r="E8" t="n">
-        <v>698.2178951673513</v>
+        <v>519.7499499031162</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>108.7640451135086</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>96.77340385731999</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711885</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.28654013517</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642786</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642786</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305296</v>
+        <v>1572.544009457213</v>
       </c>
       <c r="V8" t="n">
-        <v>1782.718007305296</v>
+        <v>1241.481122113642</v>
       </c>
       <c r="W8" t="n">
-        <v>1429.949352035182</v>
+        <v>888.7124668435279</v>
       </c>
       <c r="X8" t="n">
-        <v>1056.483593774102</v>
+        <v>888.7124668435279</v>
       </c>
       <c r="Y8" t="n">
-        <v>1056.483593774102</v>
+        <v>888.7124668435279</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>690.2723745439534</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C9" t="n">
-        <v>522.6833321692739</v>
+        <v>498.075619177915</v>
       </c>
       <c r="D9" t="n">
-        <v>522.6833321692739</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E9" t="n">
-        <v>363.4458771638183</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F9" t="n">
-        <v>216.9113191907032</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562336</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104402</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
         <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972666</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474384</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474384</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1595.273638474384</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1360.121530242642</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1105.88417351444</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>898.0326733089073</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>690.2723745439534</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.70688273934479</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="C10" t="n">
-        <v>61.70688273934479</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="D10" t="n">
-        <v>61.70688273934479</v>
+        <v>347.3497871391181</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934479</v>
+        <v>199.436693556725</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934479</v>
+        <v>52.54674605881465</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934479</v>
+        <v>52.54674605881465</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934479</v>
+        <v>52.54674605881465</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934479</v>
+        <v>52.54674605881465</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981541</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018945</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377468</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033668</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="T10" t="n">
-        <v>350.8332037653213</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="U10" t="n">
-        <v>61.70688273934479</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="V10" t="n">
-        <v>61.70688273934479</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="W10" t="n">
-        <v>61.70688273934479</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="X10" t="n">
-        <v>61.70688273934479</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.70688273934479</v>
+        <v>497.4664265514538</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,7 +5044,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855599</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603201</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>472.9099533103043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,22 +5509,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5536,19 +5536,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5557,10 +5557,10 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253734</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.244907039234</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,16 +5840,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G22" t="n">
         <v>175.9033664000583</v>
@@ -5907,55 +5907,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,67 +5971,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1730.100669612631</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1475.416181406744</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1185.999011369783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,52 +6214,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,13 +6317,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2325.6047790701</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,37 +6694,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6791,13 +6791,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179085</v>
+        <v>733.4550657171333</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5477693179085</v>
+        <v>564.5188827892264</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4311299055728</v>
+        <v>414.4022433768906</v>
       </c>
       <c r="E34" t="n">
-        <v>612.4311299055728</v>
+        <v>266.4891497944975</v>
       </c>
       <c r="F34" t="n">
-        <v>465.5411824076624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>298.3450831225423</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831768</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625881</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.88566058892</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.896109690903</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>915.103530547373</v>
       </c>
     </row>
     <row r="35">
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="38">
@@ -7168,37 +7168,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,52 +7399,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.978273055629</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7630,46 +7630,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400685</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7815,43 +7815,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138384</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703082</v>
       </c>
     </row>
   </sheetData>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>112.2233770574258</v>
       </c>
       <c r="V13" t="n">
-        <v>45.37941682721009</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>36.51445555167211</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.12907551102217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>41.29766760034522</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>73.85777223953465</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>65.0811505738412</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>127.2568112467069</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>139.9994244361397</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>19.07741329096466</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>105.0969227051396</v>
+        <v>31.91821458107435</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>145.6085800303783</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>66.73277020259152</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.2291039219449</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425522</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253112</v>
+        <v>270592.3620253115</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231947</v>
+        <v>115410.0540231949</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742644</v>
+        <v>601443.2075742641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881938</v>
+        <v>62913.63765881953</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.2536219754</v>
+        <v>27875.25362197536</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515978</v>
@@ -26420,46 +26420,46 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263465</v>
+        <v>206604.4229263464</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888975</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687959</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.64000687959</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687961</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687972</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="M4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.6400068797</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936809</v>
+        <v>76435.73471936813</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.0818558723</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331623.9846149835</v>
+        <v>-331623.9846149834</v>
       </c>
       <c r="C6" t="n">
-        <v>41622.76348057932</v>
+        <v>41622.7634805791</v>
       </c>
       <c r="D6" t="n">
-        <v>220443.1571836409</v>
+        <v>220443.1571836407</v>
       </c>
       <c r="E6" t="n">
-        <v>-132821.0926297968</v>
+        <v>-133168.4718841535</v>
       </c>
       <c r="F6" t="n">
-        <v>468622.1149444677</v>
+        <v>468274.7356901105</v>
       </c>
       <c r="G6" t="n">
-        <v>468622.1149444677</v>
+        <v>468274.7356901107</v>
       </c>
       <c r="H6" t="n">
-        <v>468622.1149444677</v>
+        <v>468274.7356901107</v>
       </c>
       <c r="I6" t="n">
-        <v>468622.1149444676</v>
+        <v>468274.7356901105</v>
       </c>
       <c r="J6" t="n">
-        <v>419557.1702159228</v>
+        <v>419209.790961566</v>
       </c>
       <c r="K6" t="n">
-        <v>405708.4772856482</v>
+        <v>405361.0980312911</v>
       </c>
       <c r="L6" t="n">
-        <v>440746.8613224924</v>
+        <v>440399.4820681351</v>
       </c>
       <c r="M6" t="n">
-        <v>311475.7343928697</v>
+        <v>311128.3551385129</v>
       </c>
       <c r="N6" t="n">
-        <v>468622.1149444676</v>
+        <v>468274.7356901108</v>
       </c>
       <c r="O6" t="n">
-        <v>468622.1149444676</v>
+        <v>468274.7356901105</v>
       </c>
       <c r="P6" t="n">
-        <v>468622.1149444675</v>
+        <v>468274.7356901106</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26740,10 +26740,10 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950608</v>
+        <v>758.899629295061</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376848</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,43 +26792,43 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.97570395947</v>
+        <v>431.9757039594704</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261639</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-4.672635203410889e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821561</v>
+        <v>210.4296883821563</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262403</v>
+        <v>94.81103524262414</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039889</v>
+        <v>514.2648358039888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.45011679315</v>
+        <v>244.4501167931504</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666939</v>
+        <v>110.139252766694</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734845</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931498</v>
+        <v>244.4501167931504</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666942</v>
+        <v>110.139252766694</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734845</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27260,13 +27260,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.45011679315</v>
+        <v>244.4501167931504</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666939</v>
+        <v>110.139252766694</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734845</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988677</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U2" t="n">
-        <v>99.09455661899378</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.715381551093</v>
+        <v>252.3742555534848</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27460,28 +27460,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>150.9301080805049</v>
+        <v>105.5661280292101</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27514,13 +27514,13 @@
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377091</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482795</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4937091346026</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>208.1704325120035</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425929</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>206.6745378808004</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493752</v>
+        <v>43.32085084937519</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>52.40093588776855</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>95.88049826342447</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
@@ -27797,7 +27797,7 @@
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304059</v>
+        <v>30.24193919304057</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589167</v>
+        <v>17.04629412269319</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>181.939644521906</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>248.6101755194556</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>251.4566395101484</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>6.795347037382953</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>11.39188093250446</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9.068535313724837</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425545</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656385</v>
@@ -28064,10 +28064,10 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>53.60623689177649</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-5.457637917583918e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.645518970125805e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29945,7 +29945,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30887,7 +30887,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -31278,10 +31278,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085669</v>
+        <v>3.05085278108567</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429362</v>
+        <v>31.24454604429363</v>
       </c>
       <c r="I5" t="n">
         <v>117.6180018428054</v>
@@ -31290,37 +31290,37 @@
         <v>258.9373162286701</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520265</v>
+        <v>388.0799144520266</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511771</v>
+        <v>481.4474502511773</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968094</v>
+        <v>535.7030533968095</v>
       </c>
       <c r="N5" t="n">
-        <v>544.371288861069</v>
+        <v>544.3712888610693</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191484</v>
+        <v>514.0343715191486</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860959</v>
+        <v>438.7164434860961</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634653</v>
+        <v>329.4577782634654</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098728</v>
+        <v>191.6431310098729</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898976</v>
+        <v>69.52130774898977</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920252</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868535</v>
+        <v>0.2440682224868536</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31360,10 +31360,10 @@
         <v>1.632350146030886</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403513</v>
+        <v>15.76506588403514</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062479</v>
+        <v>56.20152915062481</v>
       </c>
       <c r="J6" t="n">
         <v>154.2212916475935</v>
@@ -31372,19 +31372,19 @@
         <v>263.5887514316628</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721886</v>
+        <v>354.4276051721887</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658081</v>
+        <v>413.6002979658082</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468661</v>
+        <v>424.5470671468663</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374449</v>
+        <v>388.377624437445</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872487</v>
+        <v>311.7072835872488</v>
       </c>
       <c r="Q6" t="n">
         <v>208.3680642547496</v>
@@ -31393,10 +31393,10 @@
         <v>101.3488976632159</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947717</v>
+        <v>30.32018801947718</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378873</v>
+        <v>6.579516597378876</v>
       </c>
       <c r="U6" t="n">
         <v>0.1073914569757162</v>
@@ -31439,13 +31439,13 @@
         <v>1.368507528236995</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734527</v>
+        <v>41.15475366734528</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635552</v>
+        <v>96.75348224635555</v>
       </c>
       <c r="K7" t="n">
         <v>158.9956928260799</v>
@@ -31454,31 +31454,31 @@
         <v>203.4597465162529</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399136</v>
+        <v>214.5197755399137</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528486</v>
+        <v>209.4189747528487</v>
       </c>
       <c r="O7" t="n">
         <v>193.4323186275346</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514997</v>
+        <v>165.5147650514998</v>
       </c>
       <c r="Q7" t="n">
         <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054704</v>
+        <v>61.53307486054705</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391198</v>
+        <v>23.84935392391199</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830794</v>
+        <v>5.847259438830796</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656344</v>
+        <v>0.07464586517656345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508278</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958416</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934783</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190908</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699496</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452749</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076063</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913579</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730381</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475634</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526972</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017478</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368737</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
         <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.582157642014</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153094</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978881</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>340.4395077511235</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>369.1789913099997</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198377</v>
+        <v>77.89141170198383</v>
       </c>
       <c r="K5" t="n">
-        <v>167.990063407046</v>
+        <v>167.9900634070461</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811899</v>
+        <v>245.6810352811901</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695367</v>
+        <v>305.3568201695368</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644781</v>
+        <v>314.9582252644784</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974617</v>
+        <v>283.9361600974619</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308264</v>
+        <v>207.4834477308265</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890158</v>
+        <v>107.1520883890159</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092677</v>
+        <v>27.38366498092682</v>
       </c>
       <c r="K6" t="n">
         <v>125.7473124573038</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923144</v>
+        <v>215.8732253923145</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437897</v>
+        <v>271.4662640437899</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635328</v>
+        <v>293.2053550635329</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930005</v>
+        <v>245.7813799930006</v>
       </c>
       <c r="P6" t="n">
         <v>177.7328761729185</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872804</v>
+        <v>68.3862901687281</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554452</v>
+        <v>29.98243465554455</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501458</v>
+        <v>68.57507023501464</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230856</v>
+        <v>75.59399159230861</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761542</v>
+        <v>81.73343028761548</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569177</v>
+        <v>54.97578017569182</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235211</v>
+        <v>27.78676100235216</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808909</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662056</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.155628697404</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109606</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093964</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169989</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818059</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510198</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440064</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332332</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892926</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850738</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563545</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767808</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769699</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084179</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066196</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>197.843263306679</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>226.5827468655553</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060485</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>73.18080466315317</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38183,7 +38183,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010421</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2080237.184192564</v>
+        <v>2081997.71449535</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>96.86671316392817</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>32.82517431440864</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>67.14237095910568</v>
+        <v>120.7692639502641</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>101.6091648361995</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276005</v>
+        <v>92.85788772760066</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425924</v>
+        <v>23.94240680425949</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
-        <v>3.066203634128424</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,10 +986,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>29.63281758285508</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074803</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>155.8144848974951</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>40.05337266684958</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.86486348319844</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>52.87016524603457</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>4.56368125394255</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.27697994470972</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>20.2769799447059</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>9.854692234071464</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>9.085774025514283</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784679</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.55695577161148</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>173.9610973318183</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417108</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701366</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>180.8909947756162</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>18.70843787977307</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>241.1435815093809</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>37.41782514684017</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>78.14939830226075</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>80.33989744909005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5.421623586791523</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144413</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>135.3286065175535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="41">
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>214.85520491952</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703239</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832528</v>
+        <v>527.5258219170696</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832528</v>
+        <v>338.1060369005846</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832528</v>
+        <v>338.1060369005846</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>338.1060369005846</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>331.1605361513812</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
         <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262255</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433436</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268588</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268588</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268588</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W2" t="n">
-        <v>224.5974673148101</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="X2" t="n">
-        <v>224.5974673148101</v>
+        <v>716.9456069335546</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.5974673148101</v>
+        <v>716.9456069335546</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>750.1023486652798</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="C3" t="n">
-        <v>682.2817719389104</v>
+        <v>249.2736231269932</v>
       </c>
       <c r="D3" t="n">
-        <v>533.3473622776592</v>
+        <v>249.2736231269932</v>
       </c>
       <c r="E3" t="n">
-        <v>374.1099072722037</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="F3" t="n">
-        <v>227.5753492990887</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="G3" t="n">
-        <v>90.0361681215378</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="H3" t="n">
-        <v>90.0361681215378</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652798</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652798</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652798</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652798</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652798</v>
+        <v>371.2627786323105</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170722</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1314.02155108852</v>
+        <v>1350.951391437428</v>
       </c>
       <c r="C5" t="n">
-        <v>1314.02155108852</v>
+        <v>981.9888744970165</v>
       </c>
       <c r="D5" t="n">
-        <v>955.7558524817691</v>
+        <v>623.723175890266</v>
       </c>
       <c r="E5" t="n">
-        <v>955.7558524817691</v>
+        <v>237.9349232920218</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921616</v>
+        <v>230.9894225428183</v>
       </c>
       <c r="G5" t="n">
         <v>128.3539025062531</v>
@@ -4564,55 +4564,55 @@
         <v>128.3539025062531</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017217</v>
+        <v>111.6705539017212</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746973</v>
+        <v>277.9807166746963</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030759</v>
+        <v>521.2049416030741</v>
       </c>
       <c r="M5" t="n">
-        <v>823.508193570917</v>
+        <v>823.5081935709145</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582751</v>
+        <v>1135.316836582747</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079238</v>
+        <v>1416.413635079234</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332756</v>
+        <v>1621.822248332751</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837881</v>
+        <v>1727.902815837877</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.71856654065</v>
+        <v>1703.718566540645</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.71856654065</v>
+        <v>1562.810726300993</v>
       </c>
       <c r="T5" t="n">
-        <v>1700.621391152641</v>
+        <v>1350.951391437428</v>
       </c>
       <c r="U5" t="n">
-        <v>1700.621391152641</v>
+        <v>1350.951391437428</v>
       </c>
       <c r="V5" t="n">
-        <v>1700.621391152641</v>
+        <v>1350.951391437428</v>
       </c>
       <c r="W5" t="n">
-        <v>1700.621391152641</v>
+        <v>1350.951391437428</v>
       </c>
       <c r="X5" t="n">
-        <v>1700.621391152641</v>
+        <v>1350.951391437428</v>
       </c>
       <c r="Y5" t="n">
-        <v>1700.621391152641</v>
+        <v>1350.951391437428</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>800.7994951237466</v>
+        <v>372.6620599560452</v>
       </c>
       <c r="C6" t="n">
-        <v>626.3464658426196</v>
+        <v>372.6620599560452</v>
       </c>
       <c r="D6" t="n">
-        <v>477.4120561813683</v>
+        <v>223.7276502947939</v>
       </c>
       <c r="E6" t="n">
-        <v>318.1746011759128</v>
+        <v>64.49019528933843</v>
       </c>
       <c r="F6" t="n">
-        <v>171.6400432027978</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787518</v>
+        <v>61.66788464787487</v>
       </c>
       <c r="K6" t="n">
-        <v>186.157723980606</v>
+        <v>186.1577239806053</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189974</v>
+        <v>399.8722171189962</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223493</v>
+        <v>668.6238185223476</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352469</v>
+        <v>958.8971200352446</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228317</v>
+        <v>1202.220686228315</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639507</v>
+        <v>1378.176233639504</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906548</v>
+        <v>1445.878660906544</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703772</v>
+        <v>1445.878660906544</v>
       </c>
       <c r="S6" t="n">
-        <v>1401.100270703772</v>
+        <v>1445.878660906544</v>
       </c>
       <c r="T6" t="n">
-        <v>1401.100270703772</v>
+        <v>1445.878660906544</v>
       </c>
       <c r="U6" t="n">
-        <v>1401.100270703772</v>
+        <v>1445.878660906544</v>
       </c>
       <c r="V6" t="n">
-        <v>1165.948162472029</v>
+        <v>1210.726552674801</v>
       </c>
       <c r="W6" t="n">
-        <v>1008.559793888701</v>
+        <v>956.4891959465999</v>
       </c>
       <c r="X6" t="n">
-        <v>1008.559793888701</v>
+        <v>748.6376957410671</v>
       </c>
       <c r="Y6" t="n">
-        <v>800.7994951237466</v>
+        <v>540.8773969761132</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.7535309159022</v>
+        <v>369.819049585798</v>
       </c>
       <c r="C7" t="n">
-        <v>349.7535309159022</v>
+        <v>369.819049585798</v>
       </c>
       <c r="D7" t="n">
-        <v>349.7535309159022</v>
+        <v>329.361097397061</v>
       </c>
       <c r="E7" t="n">
-        <v>349.7535309159022</v>
+        <v>181.4480038146679</v>
       </c>
       <c r="F7" t="n">
-        <v>202.8635834179918</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675763</v>
+        <v>34.55805631675754</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574674</v>
+        <v>64.24066662574644</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584112</v>
+        <v>132.1299861584107</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347967</v>
+        <v>206.9680378347959</v>
       </c>
       <c r="N7" t="n">
-        <v>287.884133819536</v>
+        <v>287.884133819535</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193471</v>
+        <v>342.3101561934696</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857996</v>
+        <v>369.819049585798</v>
       </c>
       <c r="Q7" t="n">
-        <v>349.7535309159022</v>
+        <v>369.819049585798</v>
       </c>
       <c r="R7" t="n">
-        <v>349.7535309159022</v>
+        <v>369.819049585798</v>
       </c>
       <c r="S7" t="n">
-        <v>349.7535309159022</v>
+        <v>369.819049585798</v>
       </c>
       <c r="T7" t="n">
-        <v>349.7535309159022</v>
+        <v>369.819049585798</v>
       </c>
       <c r="U7" t="n">
-        <v>349.7535309159022</v>
+        <v>369.819049585798</v>
       </c>
       <c r="V7" t="n">
-        <v>349.7535309159022</v>
+        <v>369.819049585798</v>
       </c>
       <c r="W7" t="n">
-        <v>349.7535309159022</v>
+        <v>369.819049585798</v>
       </c>
       <c r="X7" t="n">
-        <v>349.7535309159022</v>
+        <v>369.819049585798</v>
       </c>
       <c r="Y7" t="n">
-        <v>349.7535309159022</v>
+        <v>369.819049585798</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.7124668435279</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="C8" t="n">
-        <v>519.7499499031162</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="D8" t="n">
-        <v>519.7499499031162</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="E8" t="n">
-        <v>519.7499499031162</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>108.7640451135086</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>96.77340385731999</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232728</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711885</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.28654013517</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642788</v>
+        <v>2163.850047860266</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794703</v>
+        <v>2163.850047860266</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457213</v>
+        <v>1910.242883522776</v>
       </c>
       <c r="V8" t="n">
-        <v>1241.481122113642</v>
+        <v>1579.179996179205</v>
       </c>
       <c r="W8" t="n">
-        <v>888.7124668435279</v>
+        <v>1226.411340909091</v>
       </c>
       <c r="X8" t="n">
-        <v>888.7124668435279</v>
+        <v>852.9455826480111</v>
       </c>
       <c r="Y8" t="n">
-        <v>888.7124668435279</v>
+        <v>852.9455826480111</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.528648459042</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>498.075619177915</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166637</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112082</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S9" t="n">
         <v>1745.745249409541</v>
@@ -4928,7 +4928,7 @@
         <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791101</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="C10" t="n">
-        <v>497.4664265514538</v>
+        <v>351.3531641126921</v>
       </c>
       <c r="D10" t="n">
-        <v>347.3497871391181</v>
+        <v>201.2365247003563</v>
       </c>
       <c r="E10" t="n">
-        <v>199.436693556725</v>
+        <v>53.32343111796322</v>
       </c>
       <c r="F10" t="n">
-        <v>52.54674605881465</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>52.54674605881465</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>52.54674605881465</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>52.54674605881465</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="X10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Y10" t="n">
-        <v>497.4664265514538</v>
+        <v>520.289347040599</v>
       </c>
     </row>
     <row r="11">
@@ -5035,52 +5035,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5132,7 +5132,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832658</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832658</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855599</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1984.597634722449</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.913146516562</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1440.495976479601</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1212.506425581584</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.7138464380538</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.6374272687974</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408905</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.244907039234</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.169680383432</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.485192177545</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1431.068022140585</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1203.078471242567</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.2858920990371</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5731,25 +5731,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5758,43 +5758,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,10 +5840,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5971,67 +5971,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6077,10 +6077,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,58 +6214,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>131.6124460245781</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958739</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C31" t="n">
-        <v>633.992644467967</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556313</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>483.8760050556313</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369644</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261136</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6676,55 +6676,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892264</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>266.4891497944975</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.06254548757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.88566058892</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.896109690903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.103530547373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6943,43 +6943,43 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,37 +7168,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998291</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998291</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7630,25 +7630,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7666,10 +7666,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400685</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7815,43 +7815,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648816</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138384</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703082</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>112.2233770574258</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>36.51445555167211</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>146.8157004124958</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>45.04089287986326</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>102.8768876993837</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>70.46607471595161</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>65.0811505738412</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>139.9994244361397</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>31.91821458107435</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393025</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.2291039219449</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425522</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425522</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="14">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516056</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516052</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752543</v>
@@ -26337,25 +26337,25 @@
         <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253115</v>
+        <v>270592.3620253101</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231949</v>
+        <v>115410.0540231948</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742641</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881953</v>
+        <v>62913.63765881919</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197536</v>
+        <v>27875.25362197535</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263464</v>
+        <v>206604.4229263468</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687959</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.6400068797</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="G4" t="n">
-        <v>15436.64000687959</v>
-      </c>
       <c r="H4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
@@ -26447,13 +26447,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="N4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687962</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936813</v>
+        <v>76435.73471936803</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-331623.9846149834</v>
       </c>
       <c r="C6" t="n">
-        <v>41622.7634805791</v>
+        <v>41622.76348058066</v>
       </c>
       <c r="D6" t="n">
-        <v>220443.1571836407</v>
+        <v>220443.1571836403</v>
       </c>
       <c r="E6" t="n">
-        <v>-133168.4718841535</v>
+        <v>-132855.8305552334</v>
       </c>
       <c r="F6" t="n">
-        <v>468274.7356901105</v>
+        <v>468587.3770190319</v>
       </c>
       <c r="G6" t="n">
-        <v>468274.7356901107</v>
+        <v>468587.3770190319</v>
       </c>
       <c r="H6" t="n">
-        <v>468274.7356901107</v>
+        <v>468587.3770190318</v>
       </c>
       <c r="I6" t="n">
-        <v>468274.7356901105</v>
+        <v>468587.3770190318</v>
       </c>
       <c r="J6" t="n">
-        <v>419209.790961566</v>
+        <v>419522.4322904875</v>
       </c>
       <c r="K6" t="n">
-        <v>405361.0980312911</v>
+        <v>405673.7393602126</v>
       </c>
       <c r="L6" t="n">
-        <v>440399.4820681351</v>
+        <v>440712.1233970566</v>
       </c>
       <c r="M6" t="n">
-        <v>311128.3551385129</v>
+        <v>311440.9964674342</v>
       </c>
       <c r="N6" t="n">
-        <v>468274.7356901108</v>
+        <v>468587.3770190316</v>
       </c>
       <c r="O6" t="n">
-        <v>468274.7356901105</v>
+        <v>468587.3770190319</v>
       </c>
       <c r="P6" t="n">
-        <v>468274.7356901106</v>
+        <v>468587.3770190319</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.899629295061</v>
+        <v>758.89962929506</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594704</v>
+        <v>431.9757039594692</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.672635203410889e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821563</v>
+        <v>210.4296883821552</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262414</v>
+        <v>94.81103524262403</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>514.2648358039897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931504</v>
+        <v>244.450116793149</v>
       </c>
       <c r="D4" t="n">
         <v>110.139252766694</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931504</v>
+        <v>244.450116793149</v>
       </c>
       <c r="L4" t="n">
         <v>110.139252766694</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931504</v>
+        <v>244.450116793149</v>
       </c>
       <c r="L4" t="n">
         <v>110.139252766694</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046874</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988683</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>252.3742555534848</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>336.9059263640604</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,19 +27460,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>105.5661280292101</v>
+        <v>51.93923503805163</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27514,7 +27514,7 @@
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715735</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>127.6160339275027</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>173.4937091346026</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>310.6427198978499</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6745378808004</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>115.4363948105288</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>96.47037835246135</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937519</v>
+        <v>43.32085084937526</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074816</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
@@ -27757,10 +27757,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>95.88049826342447</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>108.5621003513628</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304057</v>
+        <v>30.24193919304069</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.04629412269319</v>
+        <v>36.91115760589179</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>251.4566395101484</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>126.2496274553079</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.39188093250446</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>117.2980339485933</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>135.5663557888598</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>9.068535313724837</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-5.457637917583918e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.07318341828168e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.645518970125805e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29945,7 +29945,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-9.094947017729281e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30887,7 +30887,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31077,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31138,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31147,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05085278108567</v>
+        <v>3.050852781085666</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429363</v>
+        <v>31.24454604429359</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428053</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286701</v>
+        <v>258.9373162286698</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520266</v>
+        <v>388.0799144520261</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511773</v>
+        <v>481.4474502511766</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968095</v>
+        <v>535.7030533968089</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610693</v>
+        <v>544.3712888610685</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191486</v>
+        <v>514.034371519148</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860961</v>
+        <v>438.7164434860954</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634654</v>
+        <v>329.4577782634649</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098729</v>
+        <v>191.6431310098726</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898977</v>
+        <v>69.52130774898968</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920251</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868536</v>
+        <v>0.2440682224868532</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.632350146030884</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403514</v>
+        <v>15.76506588403512</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062481</v>
+        <v>56.20152915062474</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>154.2212916475933</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316628</v>
+        <v>263.5887514316625</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721887</v>
+        <v>354.4276051721882</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658082</v>
+        <v>413.6002979658076</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468663</v>
+        <v>424.5470671468657</v>
       </c>
       <c r="O6" t="n">
-        <v>388.377624437445</v>
+        <v>388.3776244374445</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872488</v>
+        <v>311.7072835872484</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547496</v>
+        <v>208.3680642547493</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632158</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947718</v>
+        <v>30.32018801947714</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378876</v>
+        <v>6.579516597378867</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236993</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377982</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734528</v>
+        <v>41.15475366734523</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635555</v>
+        <v>96.75348224635542</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260799</v>
+        <v>158.9956928260797</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162529</v>
+        <v>203.4597465162527</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399137</v>
+        <v>214.5197755399134</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528487</v>
+        <v>209.4189747528484</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275346</v>
+        <v>193.4323186275344</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514998</v>
+        <v>165.5147650514996</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235541</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054705</v>
+        <v>61.53307486054698</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391199</v>
+        <v>23.84935392391196</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830796</v>
+        <v>5.847259438830788</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656345</v>
+        <v>0.07464586517656335</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198383</v>
+        <v>77.89141170198349</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070461</v>
+        <v>167.9900634070456</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811901</v>
+        <v>245.6810352811894</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695368</v>
+        <v>305.3568201695361</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644784</v>
+        <v>314.9582252644776</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974619</v>
+        <v>283.9361600974612</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308265</v>
+        <v>207.4834477308259</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890159</v>
+        <v>107.1520883890155</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092682</v>
+        <v>27.3836649809266</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573038</v>
+        <v>125.7473124573035</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923145</v>
+        <v>215.873225392314</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437899</v>
+        <v>271.4662640437893</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635329</v>
+        <v>293.2053550635324</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930006</v>
+        <v>245.7813799930001</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729185</v>
+        <v>177.7328761729181</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.3862901687281</v>
+        <v>68.38629016872781</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554455</v>
+        <v>29.98243465554435</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501464</v>
+        <v>68.57507023501438</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230861</v>
+        <v>75.59399159230833</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761548</v>
+        <v>81.73343028761519</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569182</v>
+        <v>54.97578017569157</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235216</v>
+        <v>27.78676100235194</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066196</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060485</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38183,7 +38183,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010421</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
